--- a/results/xlsx_reports/Rosenbrock_Improved_RO.xlsx
+++ b/results/xlsx_reports/Rosenbrock_Improved_RO.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>D=2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>D=10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D=2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.0083806757719911</v>
+      </c>
+      <c r="C2" t="n">
         <v>759.5384300667353</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0083806757719911</v>
       </c>
       <c r="D2" t="n">
         <v>63010.12786402892</v>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.2810769077957584</v>
+      </c>
+      <c r="C3" t="n">
         <v>1906.731669331759</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2810769077957584</v>
       </c>
       <c r="D3" t="n">
         <v>96585.27768391176</v>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.6448338667911993</v>
+      </c>
+      <c r="C4" t="n">
         <v>3896.75483543964</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6448338667911993</v>
       </c>
       <c r="D4" t="n">
         <v>142174.6769610479</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.2208369317759146</v>
+      </c>
+      <c r="C5" t="n">
         <v>791.4403650380865</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2208369317759146</v>
       </c>
       <c r="D5" t="n">
         <v>19426.67439079565</v>
